--- a/BuildExcelConfig/bin/Debug/_____配置模版（xlsx后缀）.xlsx
+++ b/BuildExcelConfig/bin/Debug/_____配置模版（xlsx后缀）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView windowWidth="27165" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="配置类名称（名称中不能带有log、Sheet）" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <t>bool</t>
   </si>
   <si>
-    <t>list&lt;string&gt;</t>
+    <t>List&lt;string&gt;</t>
   </si>
   <si>
     <t>注释</t>
@@ -1127,14 +1127,15 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="3" customWidth="1"/>
-    <col min="3" max="8" width="11.875" customWidth="1"/>
+    <col min="3" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:8">
